--- a/AAII_Financials/Quarterly/NBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NBL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>NBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1174000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1119000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1093000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1052000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1197000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1273000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1230000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1286000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1201000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>960000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1059000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1036000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1010000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>910000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>250000</v>
+      </c>
+      <c r="F9" s="3">
         <v>209000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>210000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>192000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>199000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>178000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>181000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>169000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>99000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>93000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>121000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>119000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>145000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>782000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>924000</v>
+      </c>
+      <c r="F10" s="3">
         <v>910000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>883000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>860000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>998000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1095000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1049000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1117000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1102000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>867000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>938000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>917000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>865000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>106000</v>
+      </c>
+      <c r="F12" s="3">
         <v>15000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>21000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>12000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>26000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>11000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>16000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>21000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>52000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>64000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>30000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>42000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>549000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>4338000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>92000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1328000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>168000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>125000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>102000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2412000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-19000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>578000</v>
+      </c>
+      <c r="F15" s="3">
         <v>583000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>528000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>508000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>516000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>485000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>465000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>468000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>499000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>523000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>503000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>528000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>595000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>621000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5353000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2469000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1128000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1061000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1143000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2403000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>775000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>887000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>578000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>740000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1056000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3359000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1001000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1373000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1160000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-4333000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1295000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>32000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-91000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1206000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>498000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>343000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>708000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>461000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-96000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2300000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>35000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-363000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>396000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="F20" s="3">
         <v>127000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>59000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-216000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>552000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-121000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-260000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-92000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-86000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-24000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>62000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>111000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-92000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-3445000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-840000</v>
+      </c>
+      <c r="F21" s="3">
         <v>701000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>619000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>201000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-138000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>862000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>548000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1084000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>874000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>403000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1735000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>674000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>140000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F22" s="3">
         <v>67000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>63000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>66000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>66000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>70000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>73000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>73000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>83000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>88000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>96000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>87000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>86000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>86000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-4018000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1482000</v>
+      </c>
+      <c r="F23" s="3">
         <v>51000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>28000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-373000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-720000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>307000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>10000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>543000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>292000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-208000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2334000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>59000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-541000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-294000</v>
+      </c>
+      <c r="F24" s="3">
         <v>15000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>20000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-84000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>87000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>59000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>16000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>114000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>440000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-93000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-836000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>12000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-301000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-4007000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1188000</v>
+      </c>
+      <c r="F26" s="3">
         <v>36000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>8000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-289000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-807000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>248000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>429000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-148000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-115000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1498000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>47000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-240000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-3963000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1206000</v>
+      </c>
+      <c r="F27" s="3">
         <v>17000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-10000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-313000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-829000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>227000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-23000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>409000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-170000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-136000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1512000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>36000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-252000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-144000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1588,26 +1709,26 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>5000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>145000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>664000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-396000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>123000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-127000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-59000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>216000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-552000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>121000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>260000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>92000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>86000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>24000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-62000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-111000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>92000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3963000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1206000</v>
+      </c>
+      <c r="F33" s="3">
         <v>17000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-10000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-313000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-824000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>227000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-23000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>554000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>494000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-136000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1512000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>36000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-252000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-144000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3963000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1206000</v>
+      </c>
+      <c r="F35" s="3">
         <v>17000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-10000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-313000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-824000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>227000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-23000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>554000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>494000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-136000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1512000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>36000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-252000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-144000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>484000</v>
+      </c>
+      <c r="F41" s="3">
         <v>473000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>470000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>528000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>716000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>720000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>621000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>992000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>675000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>564000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>540000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>787000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1180000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1819000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2028,14 +2207,14 @@
       <c r="G42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="3">
-        <v>165000</v>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>24</v>
+      <c r="J42" s="3">
+        <v>165000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>24</v>
@@ -2046,325 +2225,373 @@
       <c r="M42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>562000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>730000</v>
+      </c>
+      <c r="F43" s="3">
         <v>677000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>575000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>573000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>616000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>698000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>743000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>707000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>748000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>675000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>699000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>523000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>615000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>59000</v>
+      </c>
+      <c r="F44" s="3">
         <v>74000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>68000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>70000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>67000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>86000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>73000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>60000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>82000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>78000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>88000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>92000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>89000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>89000</v>
+      </c>
+      <c r="F45" s="3">
         <v>203000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>245000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>72000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>351000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>58000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>114000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>835000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>698000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>225000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>250000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>43000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>71000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2312000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1362000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1427000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1358000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1243000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1750000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1727000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1551000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2594000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2203000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1542000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1577000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1445000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1955000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2777000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1249000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="F47" s="3">
         <v>959000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>699000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>559000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>324000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>353000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>564000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>596000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>362000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>356000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>353000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>481000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>471000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13465000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17678000</v>
+      </c>
+      <c r="F48" s="3">
         <v>19072000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>19047000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>18974000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>18419000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>18245000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>17917000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>17431000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>17502000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>18396000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>18276000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19028000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>18548000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>19105000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>388000</v>
+      </c>
+      <c r="F49" s="3">
         <v>396000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>404000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>412000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>420000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1719000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1728000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1736000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1310000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1295000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1289000</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>126000</v>
+      </c>
+      <c r="F52" s="3">
         <v>150000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>141000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>132000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>97000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>103000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>94000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>91000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>99000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>60000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>79000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>54000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>37000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17458000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20647000</v>
+      </c>
+      <c r="F54" s="3">
         <v>22004000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>21649000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>21320000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>21010000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>22147000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21854000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22448000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>21476000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21649000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21574000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21008000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>21011000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>22469000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1099000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1395000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1313000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1284000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1207000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1239000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1308000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1423000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1161000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1123000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1086000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>895000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>736000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>786000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F58" s="3">
         <v>553000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>281000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>41000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>41000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>44000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>47000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>54000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>61000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>65000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>64000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>66000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>63000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>610000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>677000</v>
+      </c>
+      <c r="F59" s="3">
         <v>637000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>717000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>618000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>478000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>841000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>698000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>737000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>517000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>434000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>445000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>532000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>679000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>681000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1750000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1969000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2585000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2311000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1943000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1726000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2124000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2053000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2214000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1739000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1622000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1595000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1493000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1478000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1528000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8632000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7477000</v>
+      </c>
+      <c r="F61" s="3">
         <v>6941000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6866000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6738000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6574000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6571000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>6555000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6858000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6746000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7487000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>7133000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6995000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7011000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>7854000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1921000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2040000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2292000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2268000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2399000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2226000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2058000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1965000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1989000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2372000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2597000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2748000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2911000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2922000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3242000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13061000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12237000</v>
+      </c>
+      <c r="F66" s="3">
         <v>13000000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12620000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12249000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11584000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11801000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11602000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12086000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11540000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12183000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11939000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11716000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11723000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12924000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3780000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>241000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1506000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1546000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1614000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1980000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2850000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2677000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2754000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2248000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1803000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1988000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3549000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3556000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3851000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4397000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8410000</v>
+      </c>
+      <c r="F76" s="3">
         <v>9004000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9029000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9071000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9426000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10346000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10252000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10362000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9936000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9466000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9635000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9292000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9288000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9545000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3963000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1206000</v>
+      </c>
+      <c r="F81" s="3">
         <v>17000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-10000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-313000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-824000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>227000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-23000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>554000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>494000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-136000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1512000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>36000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-252000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-144000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>578000</v>
+      </c>
+      <c r="F83" s="3">
         <v>583000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>528000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>508000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>516000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>485000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>465000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>468000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>499000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>523000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>503000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>528000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>595000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>620000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>482000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>469000</v>
+      </c>
+      <c r="F89" s="3">
         <v>437000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>564000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>528000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>560000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>697000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>496000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>583000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>533000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>541000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>341000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>536000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>297000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-479000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-526000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-593000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-642000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-763000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-690000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-807000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-995000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-787000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-693000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-741000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-899000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-903000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-377000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-352000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-696000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-610000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-831000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-786000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-911000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-429000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-452000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-478000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-572000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>204000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-719000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-228000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-863000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-45000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-335000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-57000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-58000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-53000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-52000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-54000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-54000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-48000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-49000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-49000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-48000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-44000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-43000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-43000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1127000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>152000</v>
+      </c>
+      <c r="F100" s="3">
         <v>265000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>294000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>194000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-133000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-145000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-419000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>298000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-607000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>202000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-360000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-66000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-891000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>913000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-129000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>72000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-189000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-401000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>309000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>119000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>24000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-247000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-393000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-639000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>519000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NBL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NBL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>NBL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1020000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1174000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1119000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1093000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1052000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1197000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1273000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1230000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1286000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1201000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>960000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1059000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1036000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1010000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>910000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E9" s="3">
         <v>238000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>250000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>209000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>210000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>192000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>199000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>178000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>181000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>169000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>99000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>93000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>121000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>119000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>145000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>113000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E10" s="3">
         <v>782000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>924000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>910000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>883000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>860000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>998000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1095000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1049000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1117000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1102000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>867000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>938000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>917000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>865000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>797000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E12" s="3">
         <v>6000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>106000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>52000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>64000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>30000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>42000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>549000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4338000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>92000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1328000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>168000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>125000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>102000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2412000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-19000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E15" s="3">
         <v>492000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>578000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>583000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>528000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>508000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>516000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>485000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>465000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>468000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>499000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>523000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>503000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>528000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>595000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>621000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>799000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5353000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2469000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1128000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1061000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1143000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2403000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>775000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>887000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>578000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>740000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1056000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3359000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1001000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1373000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1160000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-228000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4333000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1295000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-91000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1206000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>498000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>343000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>708000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>461000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-96000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>35000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-363000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E20" s="3">
         <v>396000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-123000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>127000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>59000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-216000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>552000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-121000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-260000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-92000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-86000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>62000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>111000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-92000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>56000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3445000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-840000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>701000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>619000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>201000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-138000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>862000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>548000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1084000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>874000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>403000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1735000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>674000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>140000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>426000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E22" s="3">
         <v>81000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>64000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>67000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>63000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>66000</v>
       </c>
       <c r="I22" s="3">
         <v>66000</v>
       </c>
       <c r="J22" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K22" s="3">
         <v>70000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>73000</v>
       </c>
       <c r="L22" s="3">
         <v>73000</v>
       </c>
       <c r="M22" s="3">
+        <v>73000</v>
+      </c>
+      <c r="N22" s="3">
         <v>83000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>88000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>96000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>87000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>86000</v>
       </c>
       <c r="R22" s="3">
         <v>86000</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-476000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4018000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1482000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-373000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-720000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>307000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>543000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>292000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-208000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2334000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>59000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-541000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-280000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-294000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-84000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>87000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>59000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>114000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>440000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-93000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-836000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-301000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-137000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-387000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4007000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1188000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-289000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-807000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>248000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>429000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-148000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-115000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1498000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>47000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-240000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3963000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1206000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-313000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-829000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>227000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>409000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-170000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-136000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1512000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-252000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-144000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1715,23 +1776,23 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>5000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>145000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>664000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-396000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>123000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-127000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-59000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>216000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-552000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>121000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>260000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>92000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>86000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-62000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-111000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>92000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-56000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3963000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1206000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-313000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-824000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>227000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>554000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>494000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-136000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1512000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-252000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-144000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3963000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1206000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-313000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-824000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>227000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>554000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>494000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-136000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1512000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-252000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-144000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1397000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>484000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>473000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>470000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>528000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>716000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>720000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>621000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>992000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>675000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>564000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>540000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>787000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1180000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1819000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2213,11 +2303,11 @@
       <c r="I42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="3">
         <v>165000</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>24</v>
@@ -2231,8 +2321,8 @@
       <c r="O42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E43" s="3">
         <v>562000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>730000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>677000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>575000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>573000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>616000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>698000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>743000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>707000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>748000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>675000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>699000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>523000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>615000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>486000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2299,290 +2395,305 @@
         <v>68000</v>
       </c>
       <c r="E44" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F44" s="3">
         <v>59000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>74000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>68000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>70000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>67000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>86000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>73000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>60000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>82000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>78000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>88000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>92000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>89000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E45" s="3">
         <v>285000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>89000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>203000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>245000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>72000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>351000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>58000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>114000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>835000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>698000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>225000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>250000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>43000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>71000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>372000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1003000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2312000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1362000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1427000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1358000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1243000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1750000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1727000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1551000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2594000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2203000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1542000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1577000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1445000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1955000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2777000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1246000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1249000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1093000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>959000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>699000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>559000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>324000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>353000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>564000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>596000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>362000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>356000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>353000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>481000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>471000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>543000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13211000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13465000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17678000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>19072000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19047000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18974000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18419000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18245000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17917000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17431000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17502000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18396000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18276000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19028000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18548000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19105000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E49" s="3">
         <v>270000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>388000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>396000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>404000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>412000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>420000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1719000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1728000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1736000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1310000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1295000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1289000</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>24</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E52" s="3">
         <v>162000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>126000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>150000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>141000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>132000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>97000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>103000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>94000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>91000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>99000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>60000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>79000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>54000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>37000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15899000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17458000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20647000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22004000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21649000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21320000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21010000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22147000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21854000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22448000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21476000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21649000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21574000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21008000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21011000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22469000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>676000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1099000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1250000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1395000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1313000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1284000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1207000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1239000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1308000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1423000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1161000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1123000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1086000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>895000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>736000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>786000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E58" s="3">
         <v>41000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>42000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>553000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>281000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>41000</v>
       </c>
       <c r="I58" s="3">
         <v>41000</v>
       </c>
       <c r="J58" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K58" s="3">
         <v>44000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>54000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>61000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>65000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>64000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>66000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>63000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>668000</v>
+      </c>
+      <c r="E59" s="3">
         <v>610000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>677000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>637000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>717000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>618000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>478000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>841000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>698000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>737000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>517000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>434000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>445000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>532000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>679000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>681000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1382000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1750000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1969000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2585000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2311000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1943000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1726000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2124000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2053000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2214000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1739000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1622000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1595000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1493000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1478000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1528000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7936000</v>
+      </c>
+      <c r="E61" s="3">
         <v>8632000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7477000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6941000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6866000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6738000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6574000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6571000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6555000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6858000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6746000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7487000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7133000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6995000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7011000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7854000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1806000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1921000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2040000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2292000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2268000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2399000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2226000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2058000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1965000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1989000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2372000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2597000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2748000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2911000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2922000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3242000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11896000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13061000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12237000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13000000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12620000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12249000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11584000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11801000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11602000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12086000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11540000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12183000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11939000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11716000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11723000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12924000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4198000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3780000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>241000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1506000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1546000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1614000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1980000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2850000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2677000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2754000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2248000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1803000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1988000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3549000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3556000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3851000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4003000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4397000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8410000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9004000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9029000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9071000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9426000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10346000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10252000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10362000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9936000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9466000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9635000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9292000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9288000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9545000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3963000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1206000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-313000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-824000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>227000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>554000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>494000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-136000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1512000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-252000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-144000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E83" s="3">
         <v>492000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>578000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>583000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>528000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>508000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>516000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>485000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>465000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>468000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>499000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>523000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>503000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>528000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>595000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>620000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E89" s="3">
         <v>482000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>469000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>437000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>564000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>528000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>560000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>697000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>496000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>583000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>533000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>541000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>341000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>536000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>297000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-245000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-479000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-526000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-593000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-642000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-763000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-690000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-807000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-995000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-787000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-693000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-741000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-899000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-903000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-377000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-352000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-696000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-610000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-831000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-786000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-911000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-429000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-452000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-478000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-572000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>204000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-719000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-228000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-863000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-335000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-58000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-59000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-57000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-58000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-53000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-52000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-54000</v>
       </c>
       <c r="K96" s="3">
         <v>-54000</v>
       </c>
       <c r="L96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-48000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-49000</v>
       </c>
       <c r="N96" s="3">
         <v>-49000</v>
       </c>
       <c r="O96" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-48000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-44000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-43000</v>
       </c>
       <c r="R96" s="3">
         <v>-43000</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-43000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-722000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1127000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>152000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>265000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>294000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>194000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-133000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-145000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-419000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>298000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-607000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>202000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-360000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-891000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>240000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1073000</v>
+      </c>
+      <c r="E102" s="3">
         <v>913000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-129000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>72000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-189000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-401000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>309000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>119000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>24000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-247000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-393000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-639000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>519000</v>
       </c>
     </row>
